--- a/Zig Zag Puzzler/data_analysismode1.xlsx
+++ b/Zig Zag Puzzler/data_analysismode1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mingzhen Ao\Desktop\project-2020-s2-puzzle-constraints\ZIGZAGpuzzler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mingzhen Ao\Desktop\project-2020-s2-puzzle-constraints\Zig Zag Puzzler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08876107-166F-4439-B7E4-52EED436BBBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D42370-87C2-4DCD-9936-2AA90E05E2D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="28380" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="20">
   <si>
     <t>Choco</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>OR-Tools</t>
-  </si>
-  <si>
-    <t>Picat</t>
   </si>
   <si>
     <t>Yuck</t>
@@ -2588,7 +2585,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Picat</c:v>
+                  <c:v>PicatSAT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4339,7 +4336,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Picat</c:v>
+                  <c:v>PicatSAT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -16427,8 +16424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Z110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:AA131"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16456,10 +16453,10 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
         <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
       </c>
       <c r="U2" t="s">
         <v>1</v>
@@ -16468,7 +16465,7 @@
         <v>6</v>
       </c>
       <c r="W2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -18233,25 +18230,25 @@
     </row>
     <row r="53" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" t="s">
+        <v>18</v>
+      </c>
+      <c r="L53" t="s">
+        <v>15</v>
+      </c>
+      <c r="M53" t="s">
+        <v>17</v>
+      </c>
+      <c r="V53" t="s">
+        <v>15</v>
+      </c>
+      <c r="W53" t="s">
         <v>16</v>
-      </c>
-      <c r="E53" t="s">
-        <v>20</v>
-      </c>
-      <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="L53" t="s">
-        <v>16</v>
-      </c>
-      <c r="M53" t="s">
-        <v>18</v>
-      </c>
-      <c r="V53" t="s">
-        <v>16</v>
-      </c>
-      <c r="W53" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="54" spans="4:23" x14ac:dyDescent="0.25">
@@ -18394,7 +18391,7 @@
     </row>
     <row r="60" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E60">
         <v>40</v>
@@ -18403,13 +18400,13 @@
         <v>40</v>
       </c>
       <c r="L60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M60" s="1">
         <v>1</v>
       </c>
       <c r="V60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W60">
         <v>10.5</v>
@@ -18417,7 +18414,7 @@
     </row>
     <row r="61" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E61">
         <v>40</v>
@@ -18426,13 +18423,13 @@
         <v>40</v>
       </c>
       <c r="L61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M61" s="1">
         <v>1</v>
       </c>
       <c r="V61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W61">
         <v>4</v>
@@ -18440,7 +18437,7 @@
     </row>
     <row r="62" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E62">
         <v>20</v>
@@ -18449,13 +18446,13 @@
         <v>40</v>
       </c>
       <c r="L62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M62" s="1">
         <v>0.5</v>
       </c>
       <c r="V62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W62">
         <v>133.24</v>
@@ -18463,58 +18460,58 @@
     </row>
     <row r="79" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E79" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" t="s">
+        <v>10</v>
+      </c>
+      <c r="L79" t="s">
         <v>15</v>
       </c>
-      <c r="F79" t="s">
+      <c r="M79" t="s">
         <v>14</v>
       </c>
-      <c r="G79" t="s">
+      <c r="N79" t="s">
         <v>13</v>
       </c>
-      <c r="H79" t="s">
+      <c r="O79" t="s">
         <v>12</v>
       </c>
-      <c r="I79" t="s">
+      <c r="P79" t="s">
         <v>11</v>
       </c>
-      <c r="L79" t="s">
-        <v>16</v>
-      </c>
-      <c r="M79" t="s">
+      <c r="Q79" t="s">
+        <v>10</v>
+      </c>
+      <c r="U79" t="s">
         <v>15</v>
       </c>
-      <c r="N79" t="s">
+      <c r="V79" t="s">
         <v>14</v>
       </c>
-      <c r="O79" t="s">
+      <c r="W79" t="s">
         <v>13</v>
       </c>
-      <c r="P79" t="s">
+      <c r="X79" t="s">
         <v>12</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="Y79" t="s">
         <v>11</v>
       </c>
-      <c r="U79" t="s">
-        <v>16</v>
-      </c>
-      <c r="V79" t="s">
-        <v>15</v>
-      </c>
-      <c r="W79" t="s">
-        <v>14</v>
-      </c>
-      <c r="X79" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>12</v>
-      </c>
       <c r="Z79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="4:26" x14ac:dyDescent="0.25">
@@ -18855,7 +18852,7 @@
     </row>
     <row r="86" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E86">
         <v>8</v>
@@ -18873,7 +18870,7 @@
         <v>8</v>
       </c>
       <c r="L86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M86" s="1">
         <v>1</v>
@@ -18891,7 +18888,7 @@
         <v>1</v>
       </c>
       <c r="U86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V86">
         <v>0.3</v>
@@ -18911,7 +18908,7 @@
     </row>
     <row r="87" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E87">
         <v>8</v>
@@ -18929,7 +18926,7 @@
         <v>8</v>
       </c>
       <c r="L87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M87" s="1">
         <v>1</v>
@@ -18947,7 +18944,7 @@
         <v>1</v>
       </c>
       <c r="U87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V87">
         <v>1.27</v>
@@ -18967,7 +18964,7 @@
     </row>
     <row r="88" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E88">
         <v>8</v>
@@ -18985,7 +18982,7 @@
         <v>0</v>
       </c>
       <c r="L88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M88" s="1">
         <v>1</v>
@@ -19003,7 +19000,7 @@
         <v>0</v>
       </c>
       <c r="U88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V88">
         <v>3.12</v>
@@ -19023,22 +19020,22 @@
     </row>
     <row r="107" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="3:8" x14ac:dyDescent="0.25">
@@ -19063,7 +19060,7 @@
     </row>
     <row r="109" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D109">
         <v>0.3</v>
@@ -19083,7 +19080,7 @@
     </row>
     <row r="110" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D110">
         <v>1.27</v>
